--- a/tables/table_demographics.xlsx
+++ b/tables/table_demographics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\md1spsx\Documents\AnalysisRifampicin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\md1spsx\Documents\GitHub\tristan-paper-first-in-human\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF942FC-CA94-4C39-8EE2-9508DB2CC798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F259306-2478-486A-BEB1-E43420B97D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2172" yWindow="900" windowWidth="17064" windowHeight="8604" xr2:uid="{F8ACBE74-421F-49D0-9B12-95E0BC090FE6}"/>
+    <workbookView xWindow="11100" yWindow="804" windowWidth="11844" windowHeight="9492" xr2:uid="{F8ACBE74-421F-49D0-9B12-95E0BC090FE6}"/>
   </bookViews>
   <sheets>
     <sheet name="table_demographics" sheetId="1" r:id="rId1"/>
@@ -1154,7 +1154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3BC423-498C-4509-92D1-2394EB67DBC0}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
